--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_7/bcw_train_60_test_40_depth_7_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_7/bcw_train_60_test_40_depth_7_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9132947976878613</v>
+        <v>0.9550173010380623</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9571428571428572</v>
+        <v>0.9390243902439024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9370629370629371</v>
+        <v>0.9058823529411765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9469964664310954</v>
+        <v>0.9221556886227545</v>
       </c>
       <c r="E3" t="n">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9429824561403509</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9274350649350649</v>
+        <v>0.9421149348479786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9332373508844097</v>
+        <v>0.9354586589880707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9301456320594783</v>
+        <v>0.9385864948304083</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9349923103212577</v>
+        <v>0.942901126019191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9342105263157895</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9344322478206791</v>
+        <v>0.9427662613218292</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_7/bcw_train_60_test_40_depth_7_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_60_test_40/depth_7/bcw_train_60_test_40_depth_7_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9452054794520548</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.965034965034965</v>
+        <v>0.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9550173010380623</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="n">
         <v>143</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9390243902439024</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9058823529411765</v>
+        <v>0.91</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9221556886227545</v>
+        <v>0.92</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9429824561403509</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9429824561403509</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9429824561403509</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9421149348479786</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9354586589880707</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9385864948304083</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>228</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.942901126019191</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9427662613218292</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>228</v>
